--- a/Data/conway_studies.xlsx
+++ b/Data/conway_studies.xlsx
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
